--- a/PTBR/Lang/PTBR/Game/Zone.xlsx
+++ b/PTBR/Lang/PTBR/Game/Zone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BA0F1B-EB0B-4AE0-9130-85BC39B36A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505E29A9-1B3B-439F-84E8-E5555BCC98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="466">
   <si>
     <t>id</t>
   </si>
@@ -910,9 +910,6 @@
     <t>lumiest_graveyard</t>
   </si>
   <si>
-    <t>The Graveyard</t>
-  </si>
-  <si>
     <t>墓所</t>
   </si>
   <si>
@@ -925,18 +922,12 @@
     <t>cave_dragon</t>
   </si>
   <si>
-    <t>Dragon's Nest</t>
-  </si>
-  <si>
     <t>竜窟</t>
   </si>
   <si>
     <t>underground</t>
   </si>
   <si>
-    <t>Underground</t>
-  </si>
-  <si>
     <t>地下</t>
   </si>
   <si>
@@ -949,9 +940,6 @@
     <t>tent1</t>
   </si>
   <si>
-    <t>Tent</t>
-  </si>
-  <si>
     <t>テント</t>
   </si>
   <si>
@@ -970,81 +958,54 @@
     <t>instance_arena</t>
   </si>
   <si>
-    <t>Battlefield</t>
-  </si>
-  <si>
     <t>戦場</t>
   </si>
   <si>
     <t>instance_arena2</t>
   </si>
   <si>
-    <t>Monster's Den</t>
-  </si>
-  <si>
     <t>魔物の巣窟</t>
   </si>
   <si>
     <t>instance_harvest</t>
   </si>
   <si>
-    <t>Suburban Field</t>
-  </si>
-  <si>
     <t>郊外の畑</t>
   </si>
   <si>
     <t>instance_music</t>
   </si>
   <si>
-    <t>Concert Hall</t>
-  </si>
-  <si>
     <t>演奏会場</t>
   </si>
   <si>
     <t>dungeon</t>
   </si>
   <si>
-    <t>Cave</t>
-  </si>
-  <si>
     <t>洞窟</t>
   </si>
   <si>
     <t>gathering_plain</t>
   </si>
   <si>
-    <t>Gathering Spot</t>
-  </si>
-  <si>
     <t>採取地</t>
   </si>
   <si>
     <t>dungeon_plain</t>
   </si>
   <si>
-    <t>Grassland</t>
-  </si>
-  <si>
     <t>草原</t>
   </si>
   <si>
     <t>dungeon_forest</t>
   </si>
   <si>
-    <t>Forest</t>
-  </si>
-  <si>
     <t>森</t>
   </si>
   <si>
     <t>dungeon_ruin</t>
   </si>
   <si>
-    <t>Ruin</t>
-  </si>
-  <si>
     <t>遺跡</t>
   </si>
   <si>
@@ -1060,24 +1021,15 @@
     <t>mine</t>
   </si>
   <si>
-    <t>Mine</t>
-  </si>
-  <si>
     <t>鉱山</t>
   </si>
   <si>
     <t>cave_monster</t>
   </si>
   <si>
-    <t>Monster Cave</t>
-  </si>
-  <si>
     <t>asylum</t>
   </si>
   <si>
-    <t>Orphanage</t>
-  </si>
-  <si>
     <t>孤児院</t>
   </si>
   <si>
@@ -1466,6 +1418,9 @@
   </si>
   <si>
     <t>Você vê um orfanato. As risadas das crianças ecoam no ar.</t>
+  </si>
+  <si>
+    <t>Campo Gramado</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1802,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75:D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1910,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1924,10 +1879,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1936,7 +1891,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -1950,10 +1905,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -1967,10 +1922,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1984,10 +1939,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1996,7 +1951,7 @@
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
@@ -2010,10 +1965,10 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -2027,10 +1982,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -2039,7 +1994,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G9" t="s">
         <v>38</v>
@@ -2053,10 +2008,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -2070,10 +2025,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2087,10 +2042,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -2104,10 +2059,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C13" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -2116,7 +2071,7 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -2130,10 +2085,10 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -2142,7 +2097,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -2156,7 +2111,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -2168,7 +2123,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2182,10 +2137,10 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C16" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2194,7 +2149,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2208,10 +2163,10 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2225,10 +2180,10 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
@@ -2237,7 +2192,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
@@ -2251,10 +2206,10 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C19" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
@@ -2268,10 +2223,10 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C20" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -2285,10 +2240,10 @@
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C21" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D21" t="s">
         <v>83</v>
@@ -2302,10 +2257,10 @@
         <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C22" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D22" t="s">
         <v>86</v>
@@ -2319,10 +2274,10 @@
         <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C23" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
@@ -2336,10 +2291,10 @@
         <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
         <v>92</v>
@@ -2353,7 +2308,7 @@
         <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C25" t="s">
         <v>95</v>
@@ -2365,7 +2320,7 @@
         <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="J25" t="s">
         <v>97</v>
@@ -2379,7 +2334,7 @@
         <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C26" t="s">
         <v>100</v>
@@ -2391,7 +2346,7 @@
         <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="J26" t="s">
         <v>102</v>
@@ -2405,10 +2360,10 @@
         <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C27" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D27" t="s">
         <v>105</v>
@@ -2417,7 +2372,7 @@
         <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="J27" t="s">
         <v>107</v>
@@ -2431,10 +2386,10 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C28" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="D28" t="s">
         <v>110</v>
@@ -2448,10 +2403,10 @@
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D29" t="s">
         <v>113</v>
@@ -2465,10 +2420,10 @@
         <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C30" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D30" t="s">
         <v>116</v>
@@ -2477,7 +2432,7 @@
         <v>117</v>
       </c>
       <c r="I30" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="J30" t="s">
         <v>118</v>
@@ -2491,7 +2446,7 @@
         <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C31" t="s">
         <v>121</v>
@@ -2503,7 +2458,7 @@
         <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="J31" t="s">
         <v>123</v>
@@ -2517,10 +2472,10 @@
         <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C32" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="D32" t="s">
         <v>126</v>
@@ -2534,10 +2489,10 @@
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C33" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
@@ -2551,10 +2506,10 @@
         <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C34" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D34" t="s">
         <v>132</v>
@@ -2568,10 +2523,10 @@
         <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C35" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="D35" t="s">
         <v>135</v>
@@ -2585,10 +2540,10 @@
         <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D36" t="s">
         <v>138</v>
@@ -2602,7 +2557,7 @@
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
         <v>141</v>
@@ -2614,7 +2569,7 @@
         <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="J37" t="s">
         <v>143</v>
@@ -2628,7 +2583,7 @@
         <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C38" t="s">
         <v>146</v>
@@ -2645,10 +2600,10 @@
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C39" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D39" t="s">
         <v>149</v>
@@ -2662,7 +2617,7 @@
         <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C40" t="s">
         <v>152</v>
@@ -2674,7 +2629,7 @@
         <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="J40" t="s">
         <v>154</v>
@@ -2688,7 +2643,7 @@
         <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C41" t="s">
         <v>157</v>
@@ -2700,7 +2655,7 @@
         <v>158</v>
       </c>
       <c r="I41" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="J41" t="s">
         <v>159</v>
@@ -2714,10 +2669,10 @@
         <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C42" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="D42" t="s">
         <v>162</v>
@@ -2726,7 +2681,7 @@
         <v>163</v>
       </c>
       <c r="I42" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="J42" t="s">
         <v>164</v>
@@ -2740,10 +2695,10 @@
         <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D43" t="s">
         <v>167</v>
@@ -2752,7 +2707,7 @@
         <v>168</v>
       </c>
       <c r="I43" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="J43" t="s">
         <v>169</v>
@@ -2766,10 +2721,10 @@
         <v>171</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C44" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D44" t="s">
         <v>172</v>
@@ -2778,7 +2733,7 @@
         <v>173</v>
       </c>
       <c r="I44" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="J44" t="s">
         <v>174</v>
@@ -2792,10 +2747,10 @@
         <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C45" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="D45" t="s">
         <v>177</v>
@@ -2804,7 +2759,7 @@
         <v>178</v>
       </c>
       <c r="I45" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="J45" t="s">
         <v>179</v>
@@ -2818,7 +2773,7 @@
         <v>181</v>
       </c>
       <c r="B46" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C46" t="s">
         <v>182</v>
@@ -2830,7 +2785,7 @@
         <v>183</v>
       </c>
       <c r="I46" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="J46" t="s">
         <v>184</v>
@@ -2844,10 +2799,10 @@
         <v>186</v>
       </c>
       <c r="B47" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C47" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D47" t="s">
         <v>187</v>
@@ -2856,7 +2811,7 @@
         <v>188</v>
       </c>
       <c r="I47" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="J47" t="s">
         <v>189</v>
@@ -2870,7 +2825,7 @@
         <v>191</v>
       </c>
       <c r="B48" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C48" t="s">
         <v>192</v>
@@ -2882,7 +2837,7 @@
         <v>193</v>
       </c>
       <c r="I48" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="J48" t="s">
         <v>194</v>
@@ -2896,7 +2851,7 @@
         <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C49" t="s">
         <v>197</v>
@@ -2908,7 +2863,7 @@
         <v>198</v>
       </c>
       <c r="I49" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="J49" t="s">
         <v>199</v>
@@ -2922,10 +2877,10 @@
         <v>201</v>
       </c>
       <c r="B50" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C50" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D50" t="s">
         <v>202</v>
@@ -2939,7 +2894,7 @@
         <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C51" t="s">
         <v>205</v>
@@ -2951,7 +2906,7 @@
         <v>206</v>
       </c>
       <c r="I51" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="J51" t="s">
         <v>207</v>
@@ -2965,10 +2920,10 @@
         <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C52" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D52" t="s">
         <v>210</v>
@@ -2982,10 +2937,10 @@
         <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C53" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D53" t="s">
         <v>213</v>
@@ -2999,10 +2954,10 @@
         <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C54" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D54" t="s">
         <v>216</v>
@@ -3011,7 +2966,7 @@
         <v>217</v>
       </c>
       <c r="I54" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
         <v>218</v>
@@ -3025,10 +2980,10 @@
         <v>220</v>
       </c>
       <c r="B55" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C55" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D55" t="s">
         <v>221</v>
@@ -3042,10 +2997,10 @@
         <v>223</v>
       </c>
       <c r="B56" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C56" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D56" t="s">
         <v>224</v>
@@ -3059,10 +3014,10 @@
         <v>226</v>
       </c>
       <c r="B57" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C57" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D57" t="s">
         <v>227</v>
@@ -3076,10 +3031,10 @@
         <v>229</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C58" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D58" t="s">
         <v>230</v>
@@ -3093,7 +3048,7 @@
         <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C59" t="s">
         <v>233</v>
@@ -3110,10 +3065,10 @@
         <v>235</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C60" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D60" t="s">
         <v>236</v>
@@ -3127,10 +3082,10 @@
         <v>238</v>
       </c>
       <c r="B61" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C61" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="D61" t="s">
         <v>239</v>
@@ -3139,7 +3094,7 @@
         <v>240</v>
       </c>
       <c r="I61" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="J61" t="s">
         <v>241</v>
@@ -3153,10 +3108,10 @@
         <v>243</v>
       </c>
       <c r="B62" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C62" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D62" t="s">
         <v>244</v>
@@ -3165,7 +3120,7 @@
         <v>245</v>
       </c>
       <c r="I62" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="J62" t="s">
         <v>246</v>
@@ -3179,10 +3134,10 @@
         <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C63" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D63" t="s">
         <v>249</v>
@@ -3196,10 +3151,10 @@
         <v>251</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C64" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D64" t="s">
         <v>252</v>
@@ -3213,10 +3168,10 @@
         <v>254</v>
       </c>
       <c r="B65" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C65" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="D65" t="s">
         <v>255</v>
@@ -3225,7 +3180,7 @@
         <v>256</v>
       </c>
       <c r="I65" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="J65" t="s">
         <v>257</v>
@@ -3239,10 +3194,10 @@
         <v>259</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C66" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D66" t="s">
         <v>260</v>
@@ -3251,7 +3206,7 @@
         <v>261</v>
       </c>
       <c r="I66" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="J66" t="s">
         <v>262</v>
@@ -3265,10 +3220,10 @@
         <v>264</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C67" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D67" t="s">
         <v>265</v>
@@ -3277,7 +3232,7 @@
         <v>266</v>
       </c>
       <c r="I67" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="J67" t="s">
         <v>267</v>
@@ -3291,10 +3246,10 @@
         <v>269</v>
       </c>
       <c r="B68" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C68" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="D68" t="s">
         <v>270</v>
@@ -3308,10 +3263,10 @@
         <v>272</v>
       </c>
       <c r="B69" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C69" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D69" t="s">
         <v>273</v>
@@ -3320,7 +3275,7 @@
         <v>274</v>
       </c>
       <c r="I69" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="J69" t="s">
         <v>275</v>
@@ -3334,10 +3289,10 @@
         <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C70" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D70" t="s">
         <v>278</v>
@@ -3346,7 +3301,7 @@
         <v>279</v>
       </c>
       <c r="I70" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="J70" t="s">
         <v>280</v>
@@ -3360,10 +3315,10 @@
         <v>282</v>
       </c>
       <c r="B71" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C71" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D71" t="s">
         <v>278</v>
@@ -3377,7 +3332,7 @@
         <v>283</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C72" t="s">
         <v>284</v>
@@ -3389,7 +3344,7 @@
         <v>285</v>
       </c>
       <c r="I72" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="J72" t="s">
         <v>286</v>
@@ -3403,10 +3358,10 @@
         <v>288</v>
       </c>
       <c r="B73" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C73" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="D73" t="s">
         <v>289</v>
@@ -3420,7 +3375,7 @@
         <v>291</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C74" t="s">
         <v>292</v>
@@ -3437,67 +3392,67 @@
         <v>294</v>
       </c>
       <c r="B75" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C75" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="D75" t="s">
+        <v>412</v>
+      </c>
+      <c r="E75" t="s">
         <v>295</v>
       </c>
-      <c r="E75" t="s">
+      <c r="I75" t="s">
+        <v>463</v>
+      </c>
+      <c r="J75" t="s">
         <v>296</v>
       </c>
-      <c r="I75" t="s">
-        <v>479</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>297</v>
-      </c>
-      <c r="K75" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" t="s">
+        <v>338</v>
+      </c>
+      <c r="C76" t="s">
+        <v>413</v>
+      </c>
+      <c r="D76" t="s">
+        <v>413</v>
+      </c>
+      <c r="E76" t="s">
         <v>299</v>
-      </c>
-      <c r="B76" t="s">
-        <v>354</v>
-      </c>
-      <c r="C76" t="s">
-        <v>429</v>
-      </c>
-      <c r="D76" t="s">
-        <v>300</v>
-      </c>
-      <c r="E76" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C77" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="D77" t="s">
-        <v>303</v>
+        <v>414</v>
       </c>
       <c r="E77" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C78" t="s">
         <v>95</v>
@@ -3511,10 +3466,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C79" t="s">
         <v>95</v>
@@ -3528,283 +3483,283 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C80" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>415</v>
       </c>
       <c r="E80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>415</v>
       </c>
       <c r="E81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E82" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="D83" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="E83" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C84" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="D84" t="s">
-        <v>318</v>
+        <v>417</v>
       </c>
       <c r="E84" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C85" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D85" t="s">
-        <v>321</v>
+        <v>418</v>
       </c>
       <c r="E85" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C86" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="D86" t="s">
-        <v>324</v>
+        <v>419</v>
       </c>
       <c r="E86" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="D87" t="s">
-        <v>327</v>
+        <v>420</v>
       </c>
       <c r="E87" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D88" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="E88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C89" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D89" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="E89" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B90" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C90" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="D90" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="E90" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C91" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D91" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
       <c r="E91" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C92" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D92" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E92" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C93" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D93" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="E93" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B94" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C94" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="D94" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
       <c r="E94" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B95" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C95" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D95" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="E95" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I95" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="J95" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="K95" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/PTBR/Lang/PTBR/Game/Zone.xlsx
+++ b/PTBR/Lang/PTBR/Game/Zone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C335016-01D9-41CB-8C23-18A0504C54B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DF52A6-AD40-4CA6-A29E-E6B641E35492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="3765" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="477">
   <si>
     <t>id</t>
   </si>
@@ -1427,6 +1427,33 @@
   </si>
   <si>
     <t>Ruínas de Máquinas</t>
+  </si>
+  <si>
+    <t>temple_undersea</t>
+  </si>
+  <si>
+    <t>EA 23.133</t>
+  </si>
+  <si>
+    <t>Sunken Temple of Lurie</t>
+  </si>
+  <si>
+    <t>ルーリエ海底神殿</t>
+  </si>
+  <si>
+    <t>dungeon_water</t>
+  </si>
+  <si>
+    <t>Underwater Ruin</t>
+  </si>
+  <si>
+    <t>海底遺跡</t>
+  </si>
+  <si>
+    <t>Templo Submerso de Lurie</t>
+  </si>
+  <si>
+    <t>Ruína Subaquática</t>
   </si>
 </sst>
 </file>
@@ -1804,11 +1831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,1808 +1998,1846 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>338</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>429</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>338</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>338</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>338</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>338</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
         <v>338</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>338</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>434</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>338</v>
       </c>
       <c r="C19" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>436</v>
+      </c>
+      <c r="J20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>437</v>
+      </c>
+      <c r="J21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>338</v>
       </c>
       <c r="C23" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
         <v>338</v>
       </c>
       <c r="C24" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
+        <v>439</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>338</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>338</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" t="s">
-        <v>437</v>
-      </c>
-      <c r="J26" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C27" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" t="s">
-        <v>438</v>
-      </c>
-      <c r="J27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
         <v>338</v>
       </c>
       <c r="C28" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
         <v>338</v>
       </c>
       <c r="C29" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
         <v>338</v>
       </c>
       <c r="C30" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" t="s">
-        <v>439</v>
-      </c>
-      <c r="J30" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
         <v>338</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
         <v>338</v>
       </c>
       <c r="C32" t="s">
-        <v>381</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
         <v>338</v>
       </c>
       <c r="C33" t="s">
-        <v>382</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>153</v>
+      </c>
+      <c r="I33" t="s">
+        <v>442</v>
+      </c>
+      <c r="J33" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
         <v>338</v>
       </c>
       <c r="C34" t="s">
-        <v>383</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>183</v>
+      </c>
+      <c r="I34" t="s">
+        <v>448</v>
+      </c>
+      <c r="J34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
         <v>338</v>
       </c>
       <c r="C35" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>188</v>
+      </c>
+      <c r="I35" t="s">
+        <v>449</v>
+      </c>
+      <c r="J35" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
         <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>385</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>193</v>
+      </c>
+      <c r="I36" t="s">
+        <v>450</v>
+      </c>
+      <c r="J36" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s">
         <v>338</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="I37" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="K37" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
         <v>338</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>392</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C39" t="s">
-        <v>386</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>206</v>
+      </c>
+      <c r="I39" t="s">
+        <v>452</v>
+      </c>
+      <c r="J39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
         <v>338</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>393</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
-      </c>
-      <c r="I40" t="s">
-        <v>442</v>
-      </c>
-      <c r="J40" t="s">
-        <v>154</v>
-      </c>
-      <c r="K40" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>394</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" t="s">
-        <v>443</v>
-      </c>
-      <c r="J41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K41" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I42" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="J42" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="K42" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="B43" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C43" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
-      </c>
-      <c r="I43" t="s">
-        <v>445</v>
-      </c>
-      <c r="J43" t="s">
-        <v>169</v>
-      </c>
-      <c r="K43" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C44" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
-      </c>
-      <c r="I44" t="s">
-        <v>446</v>
-      </c>
-      <c r="J44" t="s">
-        <v>174</v>
-      </c>
-      <c r="K44" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C45" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45" t="s">
-        <v>447</v>
-      </c>
-      <c r="J45" t="s">
-        <v>179</v>
-      </c>
-      <c r="K45" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s">
         <v>338</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
-      </c>
-      <c r="I46" t="s">
-        <v>448</v>
-      </c>
-      <c r="J46" t="s">
-        <v>184</v>
-      </c>
-      <c r="K46" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
         <v>338</v>
       </c>
       <c r="C47" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
-      </c>
-      <c r="I47" t="s">
-        <v>449</v>
-      </c>
-      <c r="J47" t="s">
-        <v>189</v>
-      </c>
-      <c r="K47" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
         <v>338</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>402</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="I48" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="J48" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="K48" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s">
         <v>338</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
-      </c>
-      <c r="I49" t="s">
-        <v>451</v>
-      </c>
-      <c r="J49" t="s">
-        <v>199</v>
-      </c>
-      <c r="K49" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="B50" t="s">
         <v>338</v>
       </c>
       <c r="C50" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
         <v>338</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="I51" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J51" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="K51" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="B52" t="s">
         <v>338</v>
       </c>
       <c r="C52" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>261</v>
+      </c>
+      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
+        <v>262</v>
+      </c>
+      <c r="K52" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
         <v>338</v>
       </c>
       <c r="C53" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>266</v>
+      </c>
+      <c r="I53" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" t="s">
+        <v>267</v>
+      </c>
+      <c r="K53" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="B54" t="s">
         <v>338</v>
       </c>
       <c r="C54" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
-      </c>
-      <c r="I54" t="s">
-        <v>453</v>
-      </c>
-      <c r="J54" t="s">
-        <v>218</v>
-      </c>
-      <c r="K54" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s">
         <v>338</v>
       </c>
       <c r="C55" t="s">
-        <v>396</v>
+        <v>284</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>285</v>
+      </c>
+      <c r="I55" t="s">
+        <v>461</v>
+      </c>
+      <c r="J55" t="s">
+        <v>286</v>
+      </c>
+      <c r="K55" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="B56" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C56" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
+        <v>412</v>
       </c>
       <c r="E56" t="s">
-        <v>225</v>
+        <v>295</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>296</v>
+      </c>
+      <c r="K56" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="B57" t="s">
         <v>338</v>
       </c>
       <c r="C57" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>413</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
         <v>338</v>
       </c>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>414</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="B59" t="s">
         <v>338</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>234</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B60" t="s">
         <v>338</v>
       </c>
       <c r="C60" t="s">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="B61" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C61" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>415</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
-      </c>
-      <c r="I61" t="s">
-        <v>454</v>
-      </c>
-      <c r="J61" t="s">
-        <v>241</v>
-      </c>
-      <c r="K61" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s">
         <v>338</v>
       </c>
       <c r="C62" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>424</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
-      </c>
-      <c r="I62" t="s">
-        <v>455</v>
-      </c>
-      <c r="J62" t="s">
-        <v>246</v>
-      </c>
-      <c r="K62" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B63" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C63" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="E63" t="s">
-        <v>250</v>
+        <v>274</v>
+      </c>
+      <c r="I63" t="s">
+        <v>459</v>
+      </c>
+      <c r="J63" t="s">
+        <v>275</v>
+      </c>
+      <c r="K63" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B64" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C64" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D64" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>279</v>
+      </c>
+      <c r="I64" t="s">
+        <v>460</v>
+      </c>
+      <c r="J64" t="s">
+        <v>280</v>
+      </c>
+      <c r="K64" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="B65" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C65" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D65" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
-      </c>
-      <c r="I65" t="s">
-        <v>456</v>
-      </c>
-      <c r="J65" t="s">
-        <v>257</v>
-      </c>
-      <c r="K65" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C66" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="E66" t="s">
-        <v>261</v>
-      </c>
-      <c r="I66" t="s">
-        <v>457</v>
-      </c>
-      <c r="J66" t="s">
-        <v>262</v>
-      </c>
-      <c r="K66" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C67" t="s">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="I67" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="J67" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="K67" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C68" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
+        <v>178</v>
+      </c>
+      <c r="I68" t="s">
+        <v>447</v>
+      </c>
+      <c r="J68" t="s">
+        <v>179</v>
+      </c>
+      <c r="K68" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C69" t="s">
-        <v>409</v>
+        <v>292</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
-      </c>
-      <c r="I69" t="s">
-        <v>459</v>
-      </c>
-      <c r="J69" t="s">
-        <v>275</v>
-      </c>
-      <c r="K69" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="B70" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C70" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="I70" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="J70" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="K70" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="B71" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C71" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D71" t="s">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="E71" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="B72" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>422</v>
       </c>
       <c r="D72" t="s">
-        <v>284</v>
+        <v>422</v>
       </c>
       <c r="E72" t="s">
-        <v>285</v>
-      </c>
-      <c r="I72" t="s">
-        <v>461</v>
-      </c>
-      <c r="J72" t="s">
-        <v>286</v>
-      </c>
-      <c r="K72" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="B73" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C73" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D73" t="s">
-        <v>289</v>
+        <v>423</v>
       </c>
       <c r="E73" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="D74" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C75" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="D75" t="s">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>295</v>
-      </c>
-      <c r="I75" t="s">
-        <v>462</v>
-      </c>
-      <c r="J75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K75" t="s">
-        <v>297</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C76" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="D76" t="s">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s">
-        <v>299</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C77" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="D77" t="s">
-        <v>414</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
-        <v>301</v>
+        <v>106</v>
+      </c>
+      <c r="I77" t="s">
+        <v>438</v>
+      </c>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+      <c r="K77" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c r="E78" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>401</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
-        <v>96</v>
+        <v>240</v>
+      </c>
+      <c r="I79" t="s">
+        <v>454</v>
+      </c>
+      <c r="J79" t="s">
+        <v>241</v>
+      </c>
+      <c r="K79" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C80" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C81" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="D81" t="s">
-        <v>415</v>
+        <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>305</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C82" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="E82" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s">
         <v>342</v>
       </c>
       <c r="C83" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D83" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E83" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C84" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>417</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>314</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
         <v>344</v>
       </c>
       <c r="C85" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="D85" t="s">
-        <v>418</v>
+        <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>315</v>
+        <v>173</v>
+      </c>
+      <c r="I85" t="s">
+        <v>446</v>
+      </c>
+      <c r="J85" t="s">
+        <v>174</v>
+      </c>
+      <c r="K85" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s">
         <v>344</v>
       </c>
       <c r="C86" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="D86" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E86" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C87" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="D87" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E87" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C88" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="D88" t="s">
-        <v>421</v>
+        <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>321</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B89" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C89" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="D89" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>468</v>
       </c>
       <c r="B90" t="s">
-        <v>347</v>
+        <v>469</v>
       </c>
       <c r="C90" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="D90" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="E90" t="s">
-        <v>325</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>326</v>
+        <v>472</v>
       </c>
       <c r="B91" t="s">
-        <v>347</v>
+        <v>469</v>
       </c>
       <c r="C91" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="D91" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="E91" t="s">
-        <v>327</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C92" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>329</v>
+        <v>426</v>
       </c>
       <c r="E92" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="I92" t="s">
+        <v>463</v>
+      </c>
+      <c r="J92" t="s">
+        <v>336</v>
+      </c>
+      <c r="K92" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>331</v>
+        <v>69</v>
       </c>
       <c r="B93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C93" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="D93" t="s">
-        <v>424</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>332</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B94" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C94" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="D94" t="s">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="E94" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>334</v>
+        <v>161</v>
       </c>
       <c r="B95" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C95" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="D95" t="s">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="E95" t="s">
-        <v>335</v>
+        <v>163</v>
       </c>
       <c r="I95" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="J95" t="s">
-        <v>336</v>
+        <v>164</v>
       </c>
       <c r="K95" t="s">
-        <v>337</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>320</v>
+      </c>
+      <c r="B96" t="s">
+        <v>354</v>
+      </c>
+      <c r="C96" t="s">
+        <v>421</v>
+      </c>
+      <c r="D96" t="s">
+        <v>421</v>
+      </c>
+      <c r="E96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>322</v>
+      </c>
+      <c r="B97" t="s">
+        <v>354</v>
+      </c>
+      <c r="C97" t="s">
+        <v>466</v>
+      </c>
+      <c r="D97" t="s">
+        <v>464</v>
+      </c>
+      <c r="E97" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:K2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K95">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Game/Zone.xlsx
+++ b/PTBR/Lang/PTBR/Game/Zone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DF52A6-AD40-4CA6-A29E-E6B641E35492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45BEBA5-8580-4D9D-9DC0-291D90632BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="3765" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9555" yWindow="2025" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="505">
   <si>
     <t>id</t>
   </si>
@@ -1454,13 +1454,97 @@
   </si>
   <si>
     <t>Ruína Subaquática</t>
+  </si>
+  <si>
+    <t>tent_snow</t>
+  </si>
+  <si>
+    <t>EA 23.145</t>
+  </si>
+  <si>
+    <t>Igloo</t>
+  </si>
+  <si>
+    <t>かまくら</t>
+  </si>
+  <si>
+    <t>cave_fairy</t>
+  </si>
+  <si>
+    <t>EA 23.184</t>
+  </si>
+  <si>
+    <t>Forest of the Lost Way</t>
+  </si>
+  <si>
+    <t>帰らずの森</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>EA 23.187</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>curryruin</t>
+  </si>
+  <si>
+    <t>EA 23.190</t>
+  </si>
+  <si>
+    <t>Doga Ruins Camp</t>
+  </si>
+  <si>
+    <t>ドーガ遺跡キャンプ</t>
+  </si>
+  <si>
+    <t>curryruin_dungeon</t>
+  </si>
+  <si>
+    <t>Factory of Doga</t>
+  </si>
+  <si>
+    <t>ドーガの工場</t>
+  </si>
+  <si>
+    <t>EA 23.194</t>
+  </si>
+  <si>
+    <t>Garden of Eternity</t>
+  </si>
+  <si>
+    <t>永遠の庭</t>
+  </si>
+  <si>
+    <t>Iglu</t>
+  </si>
+  <si>
+    <t>Floresta do Caminho Perdido</t>
+  </si>
+  <si>
+    <t>Céu</t>
+  </si>
+  <si>
+    <t>Acampamento das Ruínas Doga</t>
+  </si>
+  <si>
+    <t>Fábrica de Doga</t>
+  </si>
+  <si>
+    <t>Jardim da Eternidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1831,25 +1915,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98:C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="7" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="76.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="73.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="76.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="11" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1884,7 +1968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1910,7 +1994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1936,7 +2020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1953,7 +2037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +2054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +2080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2022,7 +2106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2039,7 +2123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2056,7 +2140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2073,7 +2157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2099,7 +2183,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2125,7 +2209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2151,7 +2235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2177,7 +2261,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -2203,7 +2287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2220,7 +2304,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -2237,7 +2321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2254,7 +2338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -2280,7 +2364,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -2306,7 +2390,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2323,7 +2407,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -2340,7 +2424,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -2366,7 +2450,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -2392,7 +2476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -2409,7 +2493,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -2426,7 +2510,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -2443,7 +2527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -2460,7 +2544,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -2477,7 +2561,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -2503,7 +2587,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -2520,7 +2604,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -2546,7 +2630,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>181</v>
       </c>
@@ -2572,7 +2656,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>186</v>
       </c>
@@ -2598,7 +2682,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -2624,7 +2708,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -2650,7 +2734,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -2667,7 +2751,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -2693,7 +2777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -2710,7 +2794,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>212</v>
       </c>
@@ -2727,7 +2811,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>215</v>
       </c>
@@ -2753,7 +2837,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>220</v>
       </c>
@@ -2770,7 +2854,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -2787,7 +2871,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>229</v>
       </c>
@@ -2804,7 +2888,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>232</v>
       </c>
@@ -2821,7 +2905,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>235</v>
       </c>
@@ -2838,7 +2922,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -2864,7 +2948,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>248</v>
       </c>
@@ -2881,7 +2965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>251</v>
       </c>
@@ -2898,7 +2982,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>254</v>
       </c>
@@ -2924,7 +3008,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>259</v>
       </c>
@@ -2950,7 +3034,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>264</v>
       </c>
@@ -2976,7 +3060,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>269</v>
       </c>
@@ -2993,7 +3077,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>283</v>
       </c>
@@ -3019,7 +3103,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>294</v>
       </c>
@@ -3045,7 +3129,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>298</v>
       </c>
@@ -3062,7 +3146,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>300</v>
       </c>
@@ -3079,7 +3163,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>302</v>
       </c>
@@ -3096,7 +3180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>303</v>
       </c>
@@ -3113,7 +3197,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>304</v>
       </c>
@@ -3130,7 +3214,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>331</v>
       </c>
@@ -3147,7 +3231,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>272</v>
       </c>
@@ -3173,7 +3257,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>277</v>
       </c>
@@ -3199,7 +3283,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>282</v>
       </c>
@@ -3216,7 +3300,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>288</v>
       </c>
@@ -3233,7 +3317,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -3259,7 +3343,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>176</v>
       </c>
@@ -3285,7 +3369,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -3302,7 +3386,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -3328,7 +3412,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>318</v>
       </c>
@@ -3345,7 +3429,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>324</v>
       </c>
@@ -3362,7 +3446,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>326</v>
       </c>
@@ -3379,7 +3463,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>333</v>
       </c>
@@ -3396,7 +3480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -3413,7 +3497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3430,7 +3514,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -3456,7 +3540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>223</v>
       </c>
@@ -3473,7 +3557,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>238</v>
       </c>
@@ -3499,7 +3583,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>307</v>
       </c>
@@ -3516,7 +3600,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -3533,7 +3617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>310</v>
       </c>
@@ -3550,7 +3634,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>312</v>
       </c>
@@ -3567,7 +3651,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -3584,7 +3668,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>171</v>
       </c>
@@ -3610,7 +3694,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>314</v>
       </c>
@@ -3627,7 +3711,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>316</v>
       </c>
@@ -3644,7 +3728,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -3661,7 +3745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>306</v>
       </c>
@@ -3678,7 +3762,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>468</v>
       </c>
@@ -3695,7 +3779,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>472</v>
       </c>
@@ -3712,7 +3796,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>334</v>
       </c>
@@ -3738,7 +3822,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -3755,7 +3839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>328</v>
       </c>
@@ -3772,7 +3856,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -3798,7 +3882,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>320</v>
       </c>
@@ -3815,7 +3899,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -3832,9 +3916,111 @@
         <v>323</v>
       </c>
     </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>477</v>
+      </c>
+      <c r="B98" t="s">
+        <v>478</v>
+      </c>
+      <c r="C98" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" t="s">
+        <v>479</v>
+      </c>
+      <c r="E98" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>481</v>
+      </c>
+      <c r="B99" t="s">
+        <v>482</v>
+      </c>
+      <c r="C99" t="s">
+        <v>500</v>
+      </c>
+      <c r="D99" t="s">
+        <v>483</v>
+      </c>
+      <c r="E99" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>485</v>
+      </c>
+      <c r="B100" t="s">
+        <v>486</v>
+      </c>
+      <c r="C100" t="s">
+        <v>501</v>
+      </c>
+      <c r="D100" t="s">
+        <v>487</v>
+      </c>
+      <c r="E100" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>489</v>
+      </c>
+      <c r="B101" t="s">
+        <v>490</v>
+      </c>
+      <c r="C101" t="s">
+        <v>502</v>
+      </c>
+      <c r="D101" t="s">
+        <v>491</v>
+      </c>
+      <c r="E101" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>493</v>
+      </c>
+      <c r="B102" t="s">
+        <v>490</v>
+      </c>
+      <c r="C102" t="s">
+        <v>503</v>
+      </c>
+      <c r="D102" t="s">
+        <v>494</v>
+      </c>
+      <c r="E102" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" t="s">
+        <v>496</v>
+      </c>
+      <c r="C103" t="s">
+        <v>504</v>
+      </c>
+      <c r="D103" t="s">
+        <v>497</v>
+      </c>
+      <c r="E103" t="s">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:K2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K95">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K97">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>

--- a/PTBR/Lang/PTBR/Game/Zone.xlsx
+++ b/PTBR/Lang/PTBR/Game/Zone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA9A7B7-FEED-41C3-859B-C0514F7BC8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27DE71B-8563-498E-B453-89305678ACFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>大雪原</t>
   </si>
   <si>
-    <t xml:space="preserve">A place once full of life. It was one of the Gardens of Elin.  </t>
-  </si>
-  <si>
     <t>メイルーンからさらに東に位置し、雪と氷以外何も存在しない極寒の地。</t>
   </si>
   <si>
@@ -1312,9 +1309,6 @@
     <t>O continente a nordeste do Mar de Asseria.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um lugar outrora repleto de vida. Foi um dos Jardins de Elin.  </t>
-  </si>
-  <si>
     <t>Um lugar aleatório.</t>
   </si>
   <si>
@@ -1538,6 +1532,12 @@
   </si>
   <si>
     <t>Jardim da Eternidade</t>
+  </si>
+  <si>
+    <t>Um lugar outrora repleto de vida. Foi um dos Jardins de Elin.</t>
+  </si>
+  <si>
+    <t>A place once full of life. It was one of the Gardens of Elin.</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1919,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,314 +1970,314 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J3" t="s">
         <v>106</v>
       </c>
-      <c r="I3" t="s">
-        <v>438</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>107</v>
-      </c>
-      <c r="K3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J4" t="s">
         <v>96</v>
       </c>
-      <c r="I4" t="s">
-        <v>436</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" t="s">
         <v>191</v>
       </c>
-      <c r="B5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
         <v>192</v>
       </c>
-      <c r="D5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>448</v>
+      </c>
+      <c r="J5" t="s">
         <v>193</v>
       </c>
-      <c r="I5" t="s">
-        <v>450</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>194</v>
-      </c>
-      <c r="K5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J6" t="s">
         <v>122</v>
       </c>
-      <c r="I6" t="s">
-        <v>440</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>123</v>
-      </c>
-      <c r="K6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" t="s">
         <v>181</v>
       </c>
-      <c r="B7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
         <v>182</v>
       </c>
-      <c r="D7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
+        <v>446</v>
+      </c>
+      <c r="J7" t="s">
         <v>183</v>
       </c>
-      <c r="I7" t="s">
-        <v>448</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" t="s">
         <v>204</v>
       </c>
-      <c r="B8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
         <v>205</v>
       </c>
-      <c r="D8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
+        <v>450</v>
+      </c>
+      <c r="J8" t="s">
         <v>206</v>
       </c>
-      <c r="I8" t="s">
-        <v>452</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>207</v>
-      </c>
-      <c r="K8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" t="s">
         <v>259</v>
       </c>
-      <c r="B9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>260</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
+        <v>455</v>
+      </c>
+      <c r="J9" t="s">
         <v>261</v>
       </c>
-      <c r="I9" t="s">
-        <v>457</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>262</v>
-      </c>
-      <c r="K9" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
+        <v>435</v>
+      </c>
+      <c r="J10" t="s">
         <v>101</v>
       </c>
-      <c r="I10" t="s">
-        <v>437</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" t="s">
         <v>254</v>
       </c>
-      <c r="B11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C11" t="s">
-        <v>405</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>255</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
+        <v>454</v>
+      </c>
+      <c r="J11" t="s">
         <v>256</v>
       </c>
-      <c r="I11" t="s">
-        <v>456</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>257</v>
-      </c>
-      <c r="K11" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" t="s">
         <v>283</v>
       </c>
-      <c r="B12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" t="s">
         <v>284</v>
       </c>
-      <c r="D12" t="s">
-        <v>284</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
+        <v>459</v>
+      </c>
+      <c r="J12" t="s">
         <v>285</v>
       </c>
-      <c r="I12" t="s">
-        <v>461</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>286</v>
-      </c>
-      <c r="K12" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" t="s">
         <v>294</v>
       </c>
-      <c r="B13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" t="s">
-        <v>412</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
+        <v>460</v>
+      </c>
+      <c r="J13" t="s">
         <v>295</v>
       </c>
-      <c r="I13" t="s">
-        <v>462</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>296</v>
-      </c>
-      <c r="K13" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" t="s">
         <v>196</v>
       </c>
-      <c r="B14" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
         <v>197</v>
       </c>
-      <c r="D14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
+        <v>449</v>
+      </c>
+      <c r="J14" t="s">
         <v>198</v>
       </c>
-      <c r="I14" t="s">
-        <v>451</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>199</v>
-      </c>
-      <c r="K14" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2285,10 +2285,10 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -2297,7 +2297,7 @@
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J15" t="s">
         <v>30</v>
@@ -2308,418 +2308,418 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" t="s">
         <v>115</v>
       </c>
-      <c r="B16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C16" t="s">
-        <v>380</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>116</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
+        <v>437</v>
+      </c>
+      <c r="J16" t="s">
         <v>117</v>
       </c>
-      <c r="I16" t="s">
-        <v>439</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>118</v>
-      </c>
-      <c r="K16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" t="s">
         <v>176</v>
       </c>
-      <c r="B17" t="s">
-        <v>345</v>
-      </c>
-      <c r="C17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>177</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
+        <v>445</v>
+      </c>
+      <c r="J17" t="s">
         <v>178</v>
       </c>
-      <c r="I17" t="s">
-        <v>447</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>179</v>
-      </c>
-      <c r="K17" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" t="s">
         <v>140</v>
       </c>
-      <c r="B18" t="s">
-        <v>338</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
         <v>141</v>
       </c>
-      <c r="D18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
+        <v>439</v>
+      </c>
+      <c r="J18" t="s">
         <v>142</v>
       </c>
-      <c r="I18" t="s">
-        <v>441</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>143</v>
-      </c>
-      <c r="K18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" t="s">
         <v>186</v>
       </c>
-      <c r="B19" t="s">
-        <v>338</v>
-      </c>
-      <c r="C19" t="s">
-        <v>391</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>187</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
+        <v>447</v>
+      </c>
+      <c r="J19" t="s">
         <v>188</v>
       </c>
-      <c r="I19" t="s">
-        <v>449</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>189</v>
-      </c>
-      <c r="K19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" t="s">
         <v>243</v>
       </c>
-      <c r="B20" t="s">
-        <v>338</v>
-      </c>
-      <c r="C20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>244</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
+        <v>453</v>
+      </c>
+      <c r="J20" t="s">
         <v>245</v>
       </c>
-      <c r="I20" t="s">
-        <v>455</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>246</v>
-      </c>
-      <c r="K20" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" t="s">
         <v>238</v>
       </c>
-      <c r="B21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>239</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
+        <v>452</v>
+      </c>
+      <c r="J21" t="s">
         <v>240</v>
       </c>
-      <c r="I21" t="s">
-        <v>454</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>241</v>
-      </c>
-      <c r="K21" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" t="s">
+        <v>425</v>
+      </c>
+      <c r="D22" t="s">
+        <v>425</v>
+      </c>
+      <c r="E22" t="s">
         <v>334</v>
       </c>
-      <c r="B22" t="s">
-        <v>357</v>
-      </c>
-      <c r="C22" t="s">
-        <v>426</v>
-      </c>
-      <c r="D22" t="s">
-        <v>426</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="I22" t="s">
+        <v>461</v>
+      </c>
+      <c r="J22" t="s">
         <v>335</v>
       </c>
-      <c r="I22" t="s">
-        <v>463</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>336</v>
-      </c>
-      <c r="K22" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" t="s">
         <v>264</v>
       </c>
-      <c r="B23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C23" t="s">
-        <v>407</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>265</v>
       </c>
-      <c r="E23" t="s">
+      <c r="I23" t="s">
+        <v>456</v>
+      </c>
+      <c r="J23" t="s">
         <v>266</v>
       </c>
-      <c r="I23" t="s">
-        <v>458</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>267</v>
-      </c>
-      <c r="K23" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" t="s">
         <v>171</v>
       </c>
-      <c r="B24" t="s">
-        <v>344</v>
-      </c>
-      <c r="C24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>172</v>
       </c>
-      <c r="E24" t="s">
+      <c r="I24" t="s">
+        <v>444</v>
+      </c>
+      <c r="J24" t="s">
         <v>173</v>
       </c>
-      <c r="I24" t="s">
-        <v>446</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>174</v>
-      </c>
-      <c r="K24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" t="s">
         <v>161</v>
       </c>
-      <c r="B25" t="s">
-        <v>346</v>
-      </c>
-      <c r="C25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>162</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I25" t="s">
+        <v>442</v>
+      </c>
+      <c r="J25" t="s">
         <v>163</v>
       </c>
-      <c r="I25" t="s">
-        <v>444</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C26" t="s">
         <v>156</v>
       </c>
-      <c r="B26" t="s">
-        <v>345</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
         <v>157</v>
       </c>
-      <c r="D26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
+        <v>441</v>
+      </c>
+      <c r="J26" t="s">
         <v>158</v>
       </c>
-      <c r="I26" t="s">
-        <v>443</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>159</v>
-      </c>
-      <c r="K26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" t="s">
+        <v>409</v>
+      </c>
+      <c r="D27" t="s">
         <v>277</v>
       </c>
-      <c r="B27" t="s">
-        <v>350</v>
-      </c>
-      <c r="C27" t="s">
-        <v>410</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>278</v>
       </c>
-      <c r="E27" t="s">
+      <c r="I27" t="s">
+        <v>458</v>
+      </c>
+      <c r="J27" t="s">
         <v>279</v>
       </c>
-      <c r="I27" t="s">
-        <v>460</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>280</v>
-      </c>
-      <c r="K27" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" t="s">
         <v>272</v>
       </c>
-      <c r="B28" t="s">
-        <v>350</v>
-      </c>
-      <c r="C28" t="s">
-        <v>409</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>273</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
+        <v>457</v>
+      </c>
+      <c r="J28" t="s">
         <v>274</v>
       </c>
-      <c r="I28" t="s">
-        <v>459</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>275</v>
-      </c>
-      <c r="K28" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C29" t="s">
         <v>151</v>
       </c>
-      <c r="B29" t="s">
-        <v>338</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" t="s">
         <v>152</v>
       </c>
-      <c r="D29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
+        <v>440</v>
+      </c>
+      <c r="J29" t="s">
         <v>153</v>
       </c>
-      <c r="I29" t="s">
-        <v>442</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>154</v>
-      </c>
-      <c r="K29" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D30" t="s">
         <v>215</v>
       </c>
-      <c r="B30" t="s">
-        <v>338</v>
-      </c>
-      <c r="C30" t="s">
-        <v>395</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>216</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
+        <v>451</v>
+      </c>
+      <c r="J30" t="s">
         <v>217</v>
       </c>
-      <c r="I30" t="s">
-        <v>453</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>218</v>
-      </c>
-      <c r="K30" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" t="s">
         <v>166</v>
       </c>
-      <c r="B31" t="s">
-        <v>347</v>
-      </c>
-      <c r="C31" t="s">
-        <v>388</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>167</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
+        <v>443</v>
+      </c>
+      <c r="J31" t="s">
         <v>168</v>
       </c>
-      <c r="I31" t="s">
-        <v>445</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>169</v>
-      </c>
-      <c r="K31" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2727,10 +2727,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -2739,7 +2739,7 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2750,54 +2750,54 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" t="s">
-        <v>338</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
         <v>60</v>
       </c>
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>430</v>
+      </c>
+      <c r="G33" t="s">
         <v>61</v>
       </c>
-      <c r="F33" t="s">
-        <v>432</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>62</v>
-      </c>
-      <c r="H33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" t="s">
+        <v>368</v>
+      </c>
+      <c r="D34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
-        <v>338</v>
-      </c>
-      <c r="C34" t="s">
-        <v>369</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>65</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>431</v>
+      </c>
+      <c r="G34" t="s">
         <v>66</v>
       </c>
-      <c r="F34" t="s">
-        <v>433</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>67</v>
-      </c>
-      <c r="H34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2805,7 +2805,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2817,7 +2817,7 @@
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -2828,80 +2828,80 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" t="s">
-        <v>367</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>50</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" t="s">
         <v>51</v>
       </c>
-      <c r="F36" t="s">
-        <v>430</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>52</v>
-      </c>
-      <c r="H36" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
-        <v>338</v>
-      </c>
-      <c r="C37" t="s">
-        <v>367</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>432</v>
+      </c>
+      <c r="G37" t="s">
         <v>73</v>
       </c>
-      <c r="F37" t="s">
-        <v>434</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>74</v>
-      </c>
-      <c r="H37" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38" t="s">
+        <v>367</v>
+      </c>
+      <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
-        <v>338</v>
-      </c>
-      <c r="C38" t="s">
-        <v>368</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>55</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>429</v>
+      </c>
+      <c r="G38" t="s">
         <v>56</v>
       </c>
-      <c r="F38" t="s">
-        <v>431</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>57</v>
-      </c>
-      <c r="H38" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2909,10 +2909,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -2921,234 +2921,234 @@
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="G39" t="s">
+        <v>504</v>
+      </c>
+      <c r="H39" t="s">
         <v>38</v>
-      </c>
-      <c r="H39" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>337</v>
+      </c>
+      <c r="C40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" t="s">
         <v>137</v>
       </c>
-      <c r="B40" t="s">
-        <v>338</v>
-      </c>
-      <c r="C40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>138</v>
-      </c>
-      <c r="E40" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" t="s">
         <v>278</v>
-      </c>
-      <c r="E41" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" t="s">
+        <v>337</v>
+      </c>
+      <c r="C42" t="s">
+        <v>407</v>
+      </c>
+      <c r="D42" t="s">
         <v>269</v>
       </c>
-      <c r="B42" t="s">
-        <v>338</v>
-      </c>
-      <c r="C42" t="s">
-        <v>408</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>270</v>
-      </c>
-      <c r="E42" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" t="s">
-        <v>338</v>
-      </c>
-      <c r="C43" t="s">
-        <v>371</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>77</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>487</v>
+      </c>
+      <c r="B44" t="s">
+        <v>488</v>
+      </c>
+      <c r="C44" t="s">
+        <v>500</v>
+      </c>
+      <c r="D44" t="s">
         <v>489</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>490</v>
-      </c>
-      <c r="C44" t="s">
-        <v>502</v>
-      </c>
-      <c r="D44" t="s">
-        <v>491</v>
-      </c>
-      <c r="E44" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45" t="s">
         <v>79</v>
       </c>
-      <c r="B45" t="s">
-        <v>341</v>
-      </c>
-      <c r="C45" t="s">
-        <v>372</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>80</v>
-      </c>
-      <c r="E45" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" t="s">
+        <v>337</v>
+      </c>
+      <c r="C46" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" t="s">
         <v>220</v>
       </c>
-      <c r="B46" t="s">
-        <v>338</v>
-      </c>
-      <c r="C46" t="s">
-        <v>396</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>221</v>
-      </c>
-      <c r="E46" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>306</v>
+      </c>
+      <c r="B47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" t="s">
         <v>307</v>
       </c>
-      <c r="B47" t="s">
-        <v>353</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" t="s">
         <v>308</v>
-      </c>
-      <c r="D47" t="s">
-        <v>308</v>
-      </c>
-      <c r="E47" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D48" t="s">
+        <v>415</v>
+      </c>
+      <c r="E48" t="s">
         <v>310</v>
-      </c>
-      <c r="B48" t="s">
-        <v>342</v>
-      </c>
-      <c r="C48" t="s">
-        <v>416</v>
-      </c>
-      <c r="D48" t="s">
-        <v>416</v>
-      </c>
-      <c r="E48" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" t="s">
+        <v>417</v>
+      </c>
+      <c r="D49" t="s">
+        <v>417</v>
+      </c>
+      <c r="E49" t="s">
         <v>314</v>
-      </c>
-      <c r="B49" t="s">
-        <v>344</v>
-      </c>
-      <c r="C49" t="s">
-        <v>418</v>
-      </c>
-      <c r="D49" t="s">
-        <v>418</v>
-      </c>
-      <c r="E49" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" t="s">
+        <v>464</v>
+      </c>
+      <c r="D50" t="s">
+        <v>462</v>
+      </c>
+      <c r="E50" t="s">
         <v>322</v>
-      </c>
-      <c r="B50" t="s">
-        <v>354</v>
-      </c>
-      <c r="C50" t="s">
-        <v>466</v>
-      </c>
-      <c r="D50" t="s">
-        <v>464</v>
-      </c>
-      <c r="E50" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" t="s">
+        <v>347</v>
+      </c>
+      <c r="C51" t="s">
+        <v>396</v>
+      </c>
+      <c r="D51" t="s">
         <v>223</v>
       </c>
-      <c r="B51" t="s">
-        <v>348</v>
-      </c>
-      <c r="C51" t="s">
-        <v>397</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>224</v>
-      </c>
-      <c r="E51" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" t="s">
+        <v>346</v>
+      </c>
+      <c r="C52" t="s">
+        <v>419</v>
+      </c>
+      <c r="D52" t="s">
+        <v>419</v>
+      </c>
+      <c r="E52" t="s">
         <v>318</v>
-      </c>
-      <c r="B52" t="s">
-        <v>347</v>
-      </c>
-      <c r="C52" t="s">
-        <v>420</v>
-      </c>
-      <c r="D52" t="s">
-        <v>420</v>
-      </c>
-      <c r="E52" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3156,10 +3156,10 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
@@ -3170,206 +3170,206 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" t="s">
+        <v>392</v>
+      </c>
+      <c r="D54" t="s">
         <v>209</v>
       </c>
-      <c r="B54" t="s">
-        <v>338</v>
-      </c>
-      <c r="C54" t="s">
-        <v>393</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>210</v>
-      </c>
-      <c r="E54" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" t="s">
+        <v>337</v>
+      </c>
+      <c r="C56" t="s">
+        <v>403</v>
+      </c>
+      <c r="D56" t="s">
         <v>251</v>
       </c>
-      <c r="B56" t="s">
-        <v>338</v>
-      </c>
-      <c r="C56" t="s">
-        <v>404</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>252</v>
-      </c>
-      <c r="E56" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>483</v>
+      </c>
+      <c r="B57" t="s">
+        <v>484</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
+      <c r="D57" t="s">
         <v>485</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E57" t="s">
         <v>486</v>
-      </c>
-      <c r="C57" t="s">
-        <v>501</v>
-      </c>
-      <c r="D57" t="s">
-        <v>487</v>
-      </c>
-      <c r="E57" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" t="s">
+        <v>337</v>
+      </c>
+      <c r="C58" t="s">
+        <v>391</v>
+      </c>
+      <c r="D58" t="s">
         <v>201</v>
       </c>
-      <c r="B58" t="s">
-        <v>338</v>
-      </c>
-      <c r="C58" t="s">
-        <v>392</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>202</v>
-      </c>
-      <c r="E58" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" t="s">
+        <v>341</v>
+      </c>
+      <c r="C59" t="s">
+        <v>416</v>
+      </c>
+      <c r="D59" t="s">
+        <v>416</v>
+      </c>
+      <c r="E59" t="s">
         <v>312</v>
-      </c>
-      <c r="B59" t="s">
-        <v>342</v>
-      </c>
-      <c r="C59" t="s">
-        <v>417</v>
-      </c>
-      <c r="D59" t="s">
-        <v>417</v>
-      </c>
-      <c r="E59" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>337</v>
+      </c>
+      <c r="C60" t="s">
+        <v>377</v>
+      </c>
+      <c r="D60" t="s">
         <v>109</v>
       </c>
-      <c r="B60" t="s">
-        <v>338</v>
-      </c>
-      <c r="C60" t="s">
-        <v>378</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>110</v>
-      </c>
-      <c r="E60" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C61" t="s">
+        <v>397</v>
+      </c>
+      <c r="D61" t="s">
         <v>226</v>
       </c>
-      <c r="B61" t="s">
-        <v>338</v>
-      </c>
-      <c r="C61" t="s">
-        <v>398</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>227</v>
-      </c>
-      <c r="E61" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" t="s">
+        <v>399</v>
+      </c>
+      <c r="D62" t="s">
         <v>235</v>
       </c>
-      <c r="B62" t="s">
-        <v>338</v>
-      </c>
-      <c r="C62" t="s">
-        <v>400</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>236</v>
-      </c>
-      <c r="E62" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>341</v>
+      </c>
+      <c r="C63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" t="s">
         <v>85</v>
       </c>
-      <c r="B63" t="s">
-        <v>342</v>
-      </c>
-      <c r="C63" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>86</v>
-      </c>
-      <c r="E63" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>491</v>
+      </c>
+      <c r="B64" t="s">
+        <v>488</v>
+      </c>
+      <c r="C64" t="s">
+        <v>501</v>
+      </c>
+      <c r="D64" t="s">
+        <v>492</v>
+      </c>
+      <c r="E64" t="s">
         <v>493</v>
-      </c>
-      <c r="B64" t="s">
-        <v>490</v>
-      </c>
-      <c r="C64" t="s">
-        <v>503</v>
-      </c>
-      <c r="D64" t="s">
-        <v>494</v>
-      </c>
-      <c r="E64" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>323</v>
+      </c>
+      <c r="B65" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E65" t="s">
         <v>324</v>
-      </c>
-      <c r="B65" t="s">
-        <v>347</v>
-      </c>
-      <c r="C65" t="s">
-        <v>422</v>
-      </c>
-      <c r="D65" t="s">
-        <v>422</v>
-      </c>
-      <c r="E65" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3377,10 +3377,10 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -3391,359 +3391,359 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>479</v>
+      </c>
+      <c r="B67" t="s">
+        <v>480</v>
+      </c>
+      <c r="C67" t="s">
+        <v>498</v>
+      </c>
+      <c r="D67" t="s">
         <v>481</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>482</v>
-      </c>
-      <c r="C67" t="s">
-        <v>500</v>
-      </c>
-      <c r="D67" t="s">
-        <v>483</v>
-      </c>
-      <c r="E67" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>475</v>
+      </c>
+      <c r="B68" t="s">
+        <v>476</v>
+      </c>
+      <c r="C68" t="s">
+        <v>497</v>
+      </c>
+      <c r="D68" t="s">
         <v>477</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E68" t="s">
         <v>478</v>
-      </c>
-      <c r="C68" t="s">
-        <v>499</v>
-      </c>
-      <c r="D68" t="s">
-        <v>479</v>
-      </c>
-      <c r="E68" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
+        <v>494</v>
+      </c>
+      <c r="C69" t="s">
+        <v>502</v>
+      </c>
+      <c r="D69" t="s">
+        <v>495</v>
+      </c>
+      <c r="E69" t="s">
         <v>496</v>
-      </c>
-      <c r="C69" t="s">
-        <v>504</v>
-      </c>
-      <c r="D69" t="s">
-        <v>497</v>
-      </c>
-      <c r="E69" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" t="s">
+        <v>337</v>
+      </c>
+      <c r="C70" t="s">
+        <v>365</v>
+      </c>
+      <c r="D70" t="s">
         <v>46</v>
       </c>
-      <c r="B70" t="s">
-        <v>338</v>
-      </c>
-      <c r="C70" t="s">
-        <v>366</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>47</v>
-      </c>
-      <c r="E70" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71" t="s">
         <v>232</v>
       </c>
-      <c r="B71" t="s">
-        <v>338</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" t="s">
         <v>233</v>
-      </c>
-      <c r="D71" t="s">
-        <v>233</v>
-      </c>
-      <c r="E71" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>339</v>
+      </c>
+      <c r="C72" t="s">
+        <v>369</v>
+      </c>
+      <c r="D72" t="s">
         <v>69</v>
       </c>
-      <c r="B72" t="s">
-        <v>340</v>
-      </c>
-      <c r="C72" t="s">
-        <v>370</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>70</v>
-      </c>
-      <c r="E72" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" t="s">
+        <v>383</v>
+      </c>
+      <c r="D73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" t="s">
-        <v>338</v>
-      </c>
-      <c r="C73" t="s">
-        <v>384</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>135</v>
-      </c>
-      <c r="E73" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>330</v>
+      </c>
+      <c r="B74" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" t="s">
+        <v>423</v>
+      </c>
+      <c r="D74" t="s">
+        <v>423</v>
+      </c>
+      <c r="E74" t="s">
         <v>331</v>
-      </c>
-      <c r="B74" t="s">
-        <v>338</v>
-      </c>
-      <c r="C74" t="s">
-        <v>424</v>
-      </c>
-      <c r="D74" t="s">
-        <v>424</v>
-      </c>
-      <c r="E74" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>343</v>
+      </c>
+      <c r="C75" t="s">
+        <v>385</v>
+      </c>
+      <c r="D75" t="s">
         <v>148</v>
       </c>
-      <c r="B75" t="s">
-        <v>344</v>
-      </c>
-      <c r="C75" t="s">
-        <v>386</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>149</v>
-      </c>
-      <c r="E75" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" t="s">
+        <v>412</v>
+      </c>
+      <c r="D76" t="s">
+        <v>412</v>
+      </c>
+      <c r="E76" t="s">
         <v>298</v>
-      </c>
-      <c r="B76" t="s">
-        <v>338</v>
-      </c>
-      <c r="C76" t="s">
-        <v>413</v>
-      </c>
-      <c r="D76" t="s">
-        <v>413</v>
-      </c>
-      <c r="E76" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" t="s">
+        <v>402</v>
+      </c>
+      <c r="D77" t="s">
         <v>248</v>
       </c>
-      <c r="B77" t="s">
-        <v>338</v>
-      </c>
-      <c r="C77" t="s">
-        <v>403</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>249</v>
-      </c>
-      <c r="E77" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" t="s">
         <v>95</v>
-      </c>
-      <c r="D78" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" t="s">
         <v>95</v>
-      </c>
-      <c r="D79" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80" t="s">
+        <v>350</v>
+      </c>
+      <c r="C80" t="s">
+        <v>410</v>
+      </c>
+      <c r="D80" t="s">
         <v>288</v>
       </c>
-      <c r="B80" t="s">
-        <v>351</v>
-      </c>
-      <c r="C80" t="s">
-        <v>411</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>289</v>
-      </c>
-      <c r="E80" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" t="s">
+        <v>398</v>
+      </c>
+      <c r="D81" t="s">
         <v>229</v>
       </c>
-      <c r="B81" t="s">
-        <v>338</v>
-      </c>
-      <c r="C81" t="s">
-        <v>399</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>230</v>
-      </c>
-      <c r="E81" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>337</v>
+      </c>
+      <c r="C82" t="s">
+        <v>374</v>
+      </c>
+      <c r="D82" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="s">
-        <v>338</v>
-      </c>
-      <c r="C82" t="s">
-        <v>375</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>89</v>
-      </c>
-      <c r="E82" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>290</v>
+      </c>
+      <c r="B83" t="s">
+        <v>344</v>
+      </c>
+      <c r="C83" t="s">
         <v>291</v>
       </c>
-      <c r="B83" t="s">
-        <v>345</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>291</v>
+      </c>
+      <c r="E83" t="s">
         <v>292</v>
-      </c>
-      <c r="D83" t="s">
-        <v>292</v>
-      </c>
-      <c r="E83" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" t="s">
+        <v>393</v>
+      </c>
+      <c r="D84" t="s">
         <v>212</v>
       </c>
-      <c r="B84" t="s">
-        <v>338</v>
-      </c>
-      <c r="C84" t="s">
-        <v>394</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>213</v>
-      </c>
-      <c r="E84" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>337</v>
+      </c>
+      <c r="C85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D85" t="s">
         <v>40</v>
       </c>
-      <c r="B85" t="s">
-        <v>338</v>
-      </c>
-      <c r="C85" t="s">
-        <v>364</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>41</v>
-      </c>
-      <c r="E85" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" t="s">
+        <v>353</v>
+      </c>
+      <c r="C86" t="s">
+        <v>420</v>
+      </c>
+      <c r="D86" t="s">
+        <v>420</v>
+      </c>
+      <c r="E86" t="s">
         <v>320</v>
-      </c>
-      <c r="B86" t="s">
-        <v>354</v>
-      </c>
-      <c r="C86" t="s">
-        <v>421</v>
-      </c>
-      <c r="D86" t="s">
-        <v>421</v>
-      </c>
-      <c r="E86" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87" t="s">
+        <v>375</v>
+      </c>
+      <c r="D87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="s">
-        <v>338</v>
-      </c>
-      <c r="C87" t="s">
-        <v>376</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>92</v>
-      </c>
-      <c r="E87" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,10 +3751,10 @@
         <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D88" t="s">
         <v>33</v>
@@ -3765,257 +3765,257 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>325</v>
+      </c>
+      <c r="B89" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" t="s">
+        <v>422</v>
+      </c>
+      <c r="D89" t="s">
+        <v>422</v>
+      </c>
+      <c r="E89" t="s">
         <v>326</v>
-      </c>
-      <c r="B89" t="s">
-        <v>347</v>
-      </c>
-      <c r="C89" t="s">
-        <v>423</v>
-      </c>
-      <c r="D89" t="s">
-        <v>423</v>
-      </c>
-      <c r="E89" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" t="s">
+        <v>467</v>
+      </c>
+      <c r="C90" t="s">
+        <v>474</v>
+      </c>
+      <c r="D90" t="s">
+        <v>471</v>
+      </c>
+      <c r="E90" t="s">
         <v>472</v>
-      </c>
-      <c r="B90" t="s">
-        <v>469</v>
-      </c>
-      <c r="C90" t="s">
-        <v>476</v>
-      </c>
-      <c r="D90" t="s">
-        <v>473</v>
-      </c>
-      <c r="E90" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" t="s">
+        <v>378</v>
+      </c>
+      <c r="D91" t="s">
         <v>112</v>
       </c>
-      <c r="B91" t="s">
-        <v>338</v>
-      </c>
-      <c r="C91" t="s">
-        <v>379</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>113</v>
-      </c>
-      <c r="E91" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>327</v>
+      </c>
+      <c r="B92" t="s">
+        <v>354</v>
+      </c>
+      <c r="C92" t="s">
+        <v>465</v>
+      </c>
+      <c r="D92" t="s">
         <v>328</v>
       </c>
-      <c r="B92" t="s">
-        <v>355</v>
-      </c>
-      <c r="C92" t="s">
-        <v>467</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>329</v>
-      </c>
-      <c r="E92" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>315</v>
+      </c>
+      <c r="B93" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" t="s">
+        <v>463</v>
+      </c>
+      <c r="D93" t="s">
+        <v>418</v>
+      </c>
+      <c r="E93" t="s">
         <v>316</v>
-      </c>
-      <c r="B93" t="s">
-        <v>344</v>
-      </c>
-      <c r="C93" t="s">
-        <v>465</v>
-      </c>
-      <c r="D93" t="s">
-        <v>419</v>
-      </c>
-      <c r="E93" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" t="s">
+        <v>372</v>
+      </c>
+      <c r="D94" t="s">
         <v>82</v>
       </c>
-      <c r="B94" t="s">
-        <v>341</v>
-      </c>
-      <c r="C94" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>83</v>
-      </c>
-      <c r="E94" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" t="s">
+        <v>337</v>
+      </c>
+      <c r="C95" t="s">
+        <v>380</v>
+      </c>
+      <c r="D95" t="s">
         <v>125</v>
       </c>
-      <c r="B95" t="s">
-        <v>338</v>
-      </c>
-      <c r="C95" t="s">
-        <v>381</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>126</v>
-      </c>
-      <c r="E95" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" t="s">
         <v>128</v>
       </c>
-      <c r="B96" t="s">
-        <v>338</v>
-      </c>
-      <c r="C96" t="s">
-        <v>382</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>129</v>
-      </c>
-      <c r="E96" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" t="s">
+        <v>337</v>
+      </c>
+      <c r="C97" t="s">
+        <v>382</v>
+      </c>
+      <c r="D97" t="s">
         <v>131</v>
       </c>
-      <c r="B97" t="s">
-        <v>338</v>
-      </c>
-      <c r="C97" t="s">
-        <v>383</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>132</v>
-      </c>
-      <c r="E97" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" t="s">
+        <v>337</v>
+      </c>
+      <c r="C98" t="s">
+        <v>413</v>
+      </c>
+      <c r="D98" t="s">
+        <v>413</v>
+      </c>
+      <c r="E98" t="s">
         <v>300</v>
-      </c>
-      <c r="B98" t="s">
-        <v>338</v>
-      </c>
-      <c r="C98" t="s">
-        <v>414</v>
-      </c>
-      <c r="D98" t="s">
-        <v>414</v>
-      </c>
-      <c r="E98" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>466</v>
+      </c>
+      <c r="B99" t="s">
+        <v>467</v>
+      </c>
+      <c r="C99" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" t="s">
         <v>468</v>
       </c>
-      <c r="B99" t="s">
+      <c r="E99" t="s">
         <v>469</v>
-      </c>
-      <c r="C99" t="s">
-        <v>475</v>
-      </c>
-      <c r="D99" t="s">
-        <v>470</v>
-      </c>
-      <c r="E99" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>303</v>
+      </c>
+      <c r="B100" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" t="s">
+        <v>414</v>
+      </c>
+      <c r="D100" t="s">
+        <v>414</v>
+      </c>
+      <c r="E100" t="s">
         <v>304</v>
-      </c>
-      <c r="B100" t="s">
-        <v>338</v>
-      </c>
-      <c r="C100" t="s">
-        <v>415</v>
-      </c>
-      <c r="D100" t="s">
-        <v>415</v>
-      </c>
-      <c r="E100" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" t="s">
+        <v>337</v>
+      </c>
+      <c r="C102" t="s">
         <v>145</v>
       </c>
-      <c r="B102" t="s">
-        <v>338</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" t="s">
         <v>146</v>
-      </c>
-      <c r="D102" t="s">
-        <v>146</v>
-      </c>
-      <c r="E102" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" t="s">
+        <v>337</v>
+      </c>
+      <c r="C103" t="s">
+        <v>364</v>
+      </c>
+      <c r="D103" t="s">
         <v>43</v>
       </c>
-      <c r="B103" t="s">
-        <v>338</v>
-      </c>
-      <c r="C103" t="s">
-        <v>365</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>44</v>
-      </c>
-      <c r="E103" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
